--- a/KO.xlsx
+++ b/KO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\CompanyResearchModels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\ModelsResearchMetrics\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F0E886-1CA1-43E2-9573-0BDC9EEA2655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53A2C23-F2A5-449D-B2B3-62A10FE2E6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="75" windowWidth="14235" windowHeight="15495" activeTab="1" xr2:uid="{F37AADAF-9095-4FBF-B04C-8FF06AD1A01B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F37AADAF-9095-4FBF-B04C-8FF06AD1A01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -166,6 +166,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0\x"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -221,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A322F3-21BD-4533-8CCD-3A109B019443}">
-  <dimension ref="B2:M16"/>
+  <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -739,60 +742,71 @@
         <v>321234.95841235004</v>
       </c>
     </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L9" s="1">
+        <v>11050</v>
+      </c>
+    </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11">
-        <v>146.54</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1371.9890250000001</v>
+      <c r="L10" s="9">
+        <f>+L8/L9</f>
+        <v>29.07103696039367</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="1">
-        <f>+L11*L12</f>
-        <v>201051.27172349999</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14">
+        <v>146.54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1371.9890250000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="1">
+        <f>+L14*L15</f>
+        <v>201051.27172349999</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L17" s="1">
         <f>7308+743</f>
         <v>8051</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K15" t="s">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L18" s="1">
         <f>6524+38490</f>
         <v>45014</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K16" t="s">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="1">
-        <f>+L13-L14+L15</f>
+      <c r="L19" s="1">
+        <f>+L16-L17+L18</f>
         <v>238014.27172349999</v>
       </c>
     </row>
@@ -806,10 +820,10 @@
   <dimension ref="A2:AM21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1082,7 +1096,7 @@
       <c r="P4" s="1">
         <v>4664</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="1">
         <f>+AC4-SUM(N4:P4)</f>
         <v>4613</v>
       </c>
@@ -1257,7 +1271,7 @@
       <c r="P6" s="1">
         <v>3636</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="1">
         <f>+AC6-SUM(N6:P6)</f>
         <v>4046</v>
       </c>
@@ -1288,95 +1302,95 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <f>+SUM(B6:B6)</f>
+        <f t="shared" ref="B7:Q7" si="5">+SUM(B6:B6)</f>
         <v>2669</v>
       </c>
       <c r="C7" s="1">
-        <f>+SUM(C6:C6)</f>
+        <f t="shared" si="5"/>
         <v>3017</v>
       </c>
       <c r="D7" s="1">
-        <f>+SUM(D6:D6)</f>
+        <f t="shared" si="5"/>
         <v>3122</v>
       </c>
       <c r="E7" s="1">
-        <f>+SUM(E6:E6)</f>
+        <f t="shared" si="5"/>
         <v>3336</v>
       </c>
       <c r="F7" s="1">
-        <f>+SUM(F6:F6)</f>
+        <f t="shared" si="5"/>
         <v>2967</v>
       </c>
       <c r="G7" s="1">
-        <f>+SUM(G6:G6)</f>
+        <f t="shared" si="5"/>
         <v>3203</v>
       </c>
       <c r="H7" s="1">
-        <f>+SUM(H6:H6)</f>
+        <f t="shared" si="5"/>
         <v>3279</v>
       </c>
       <c r="I7" s="1">
-        <f>+SUM(I6:I6)</f>
+        <f t="shared" si="5"/>
         <v>3431</v>
       </c>
       <c r="J7" s="1">
-        <f>+SUM(J6:J6)</f>
+        <f t="shared" si="5"/>
         <v>3185</v>
       </c>
       <c r="K7" s="1">
-        <f>+SUM(K6:K6)</f>
+        <f t="shared" si="5"/>
         <v>3321</v>
       </c>
       <c r="L7" s="1">
-        <f>+SUM(L6:L6)</f>
+        <f t="shared" si="5"/>
         <v>3667</v>
       </c>
       <c r="M7" s="1">
-        <f>+SUM(M6:M6)</f>
+        <f t="shared" si="5"/>
         <v>3799</v>
       </c>
       <c r="N7" s="1">
-        <f>+SUM(N6:N6)</f>
+        <f t="shared" si="5"/>
         <v>3351</v>
       </c>
       <c r="O7" s="1">
-        <f>+SUM(O6:O6)</f>
+        <f t="shared" si="5"/>
         <v>3549</v>
       </c>
       <c r="P7" s="1">
-        <f>+SUM(P6:P6)</f>
+        <f t="shared" si="5"/>
         <v>3636</v>
       </c>
       <c r="Q7" s="1">
-        <f>+SUM(Q6:Q6)</f>
+        <f t="shared" si="5"/>
         <v>4046</v>
       </c>
       <c r="W7" s="1">
-        <f>+SUM(W6:W6)</f>
+        <f t="shared" ref="W7:AC7" si="6">+SUM(W6:W6)</f>
         <v>11002</v>
       </c>
       <c r="X7" s="1">
-        <f>+SUM(X6:X6)</f>
+        <f t="shared" si="6"/>
         <v>12103</v>
       </c>
       <c r="Y7" s="1">
-        <f>+SUM(Y6:Y6)</f>
+        <f t="shared" si="6"/>
         <v>9731</v>
       </c>
       <c r="Z7" s="1">
-        <f>+SUM(Z6:Z6)</f>
+        <f t="shared" si="6"/>
         <v>12144</v>
       </c>
       <c r="AA7" s="1">
-        <f>+SUM(AA6:AA6)</f>
+        <f t="shared" si="6"/>
         <v>12880</v>
       </c>
       <c r="AB7" s="1">
-        <f>+SUM(AB6:AB6)</f>
+        <f t="shared" si="6"/>
         <v>13972</v>
       </c>
       <c r="AC7" s="1">
-        <f>+SUM(AC6:AC6)</f>
+        <f t="shared" si="6"/>
         <v>14582</v>
       </c>
     </row>
@@ -1385,95 +1399,95 @@
         <v>5</v>
       </c>
       <c r="B8" s="5">
-        <f>+B5-B7</f>
+        <f t="shared" ref="B8:Q8" si="7">+B5-B7</f>
         <v>2846</v>
       </c>
       <c r="C8" s="5">
-        <f>+C5-C7</f>
+        <f t="shared" si="7"/>
         <v>3325</v>
       </c>
       <c r="D8" s="5">
-        <f>+D5-D7</f>
+        <f t="shared" si="7"/>
         <v>2943</v>
       </c>
       <c r="E8" s="5">
-        <f>+E5-E7</f>
+        <f t="shared" si="7"/>
         <v>2040</v>
       </c>
       <c r="F8" s="5">
-        <f>+F5-F7</f>
+        <f t="shared" si="7"/>
         <v>3433</v>
       </c>
       <c r="G8" s="5">
-        <f>+G5-G7</f>
+        <f t="shared" si="7"/>
         <v>3292</v>
       </c>
       <c r="H8" s="5">
-        <f>+H5-H7</f>
+        <f t="shared" si="7"/>
         <v>3218</v>
       </c>
       <c r="I8" s="5">
-        <f>+I5-I7</f>
+        <f t="shared" si="7"/>
         <v>2181</v>
       </c>
       <c r="J8" s="5">
-        <f>+J5-J7</f>
+        <f t="shared" si="7"/>
         <v>3478</v>
       </c>
       <c r="K8" s="5">
-        <f>+K5-K7</f>
+        <f t="shared" si="7"/>
         <v>3739</v>
       </c>
       <c r="L8" s="5">
-        <f>+L5-L7</f>
+        <f t="shared" si="7"/>
         <v>3629</v>
       </c>
       <c r="M8" s="5">
-        <f>+M5-M7</f>
+        <f t="shared" si="7"/>
         <v>2416</v>
       </c>
       <c r="N8" s="5">
-        <f>+N5-N7</f>
+        <f t="shared" si="7"/>
         <v>3714</v>
       </c>
       <c r="O8" s="5">
-        <f>+O5-O7</f>
+        <f t="shared" si="7"/>
         <v>4002</v>
       </c>
       <c r="P8" s="5">
-        <f>+P5-P7</f>
+        <f t="shared" si="7"/>
         <v>3554</v>
       </c>
       <c r="Q8" s="5">
-        <f>+Q5-Q7</f>
+        <f t="shared" si="7"/>
         <v>2885</v>
       </c>
       <c r="W8" s="5">
-        <f>+W5-W7</f>
+        <f t="shared" ref="W8:AC8" si="8">+W5-W7</f>
         <v>10231</v>
       </c>
       <c r="X8" s="5">
-        <f>+X5-X7</f>
+        <f t="shared" si="8"/>
         <v>10544</v>
       </c>
       <c r="Y8" s="5">
-        <f>+Y5-Y7</f>
+        <f t="shared" si="8"/>
         <v>9850</v>
       </c>
       <c r="Z8" s="5">
-        <f>+Z5-Z7</f>
+        <f t="shared" si="8"/>
         <v>11154</v>
       </c>
       <c r="AA8" s="5">
-        <f>+AA5-AA7</f>
+        <f t="shared" si="8"/>
         <v>12124</v>
       </c>
       <c r="AB8" s="5">
-        <f>+AB5-AB7</f>
+        <f t="shared" si="8"/>
         <v>13262</v>
       </c>
       <c r="AC8" s="5">
-        <f>+AC5-AC7</f>
+        <f t="shared" si="8"/>
         <v>14155</v>
       </c>
     </row>
@@ -1494,7 +1508,7 @@
         <v>-142</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9:E11" si="5">+Z9-SUM(B9:D9)</f>
+        <f t="shared" ref="E9:E11" si="9">+Z9-SUM(B9:D9)</f>
         <v>-94</v>
       </c>
       <c r="F9" s="1">
@@ -1510,7 +1524,7 @@
         <v>-70</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ref="I9:I11" si="6">+AA9-SUM(F9:H9)</f>
+        <f t="shared" ref="I9:I11" si="10">+AA9-SUM(F9:H9)</f>
         <v>-161</v>
       </c>
       <c r="J9" s="1">
@@ -1541,7 +1555,7 @@
         <f>263-425</f>
         <v>-162</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="1">
         <f>+AC9-SUM(N9:P9)</f>
         <v>-227</v>
       </c>
@@ -1579,95 +1593,95 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10:Q10" si="7">+B8+B9</f>
+        <f t="shared" ref="B10:Q10" si="11">+B8+B9</f>
         <v>2470</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2616</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2801</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1946</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3329</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3194</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3148</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3274</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3589</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3509</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2270</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3578</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3859</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3392</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2658</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" ref="W10:AC10" si="8">+W8+W9</f>
+        <f t="shared" ref="W10:AC10" si="12">+W8+W9</f>
         <v>9970</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10161</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8783</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>9833</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>11691</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12642</v>
       </c>
       <c r="AC10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>13487</v>
       </c>
     </row>
@@ -1685,7 +1699,7 @@
         <v>609</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>510</v>
       </c>
       <c r="F11" s="1">
@@ -1698,7 +1712,7 @@
         <v>622</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>444</v>
       </c>
       <c r="J11" s="1">
@@ -1723,7 +1737,7 @@
       <c r="P11" s="1">
         <v>530</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="1">
         <f>+AC11-SUM(N11:P11)</f>
         <v>593</v>
       </c>
@@ -1754,95 +1768,95 @@
         <v>8</v>
       </c>
       <c r="B12" s="5">
-        <f t="shared" ref="B12:Q12" si="9">+B10-B11</f>
+        <f t="shared" ref="B12:Q12" si="13">+B10-B11</f>
         <v>1962</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1622</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2192</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1436</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2664</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2810</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2526</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1576</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2334</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3230</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3055</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1774</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2891</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3232</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2862</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2065</v>
       </c>
       <c r="W12" s="5">
-        <f t="shared" ref="W12:AC12" si="10">+W10-W11</f>
+        <f t="shared" ref="W12:AC12" si="14">+W10-W11</f>
         <v>8221</v>
       </c>
       <c r="X12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>8360</v>
       </c>
       <c r="Y12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6802</v>
       </c>
       <c r="Z12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>7212</v>
       </c>
       <c r="AA12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9576</v>
       </c>
       <c r="AB12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>10393</v>
       </c>
       <c r="AC12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>11050</v>
       </c>
     </row>
@@ -1851,95 +1865,95 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <f t="shared" ref="B13:Q13" si="11">+B12/B14</f>
+        <f t="shared" ref="B13:Q13" si="15">+B12/B14</f>
         <v>0.45311778290993071</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.37390502535730752</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.50460405156537758</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.3305709023941068</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.61142988294698186</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.64553181713760621</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.58122411412793373</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.3626323055683387</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.53716915995397008</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.74406818705367428</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.7040792809403088</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.40884996542982255</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.66890328551596479</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.74832137068765914</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.66204024982650933</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.47845227062094531</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" ref="W13:AC13" si="12">+W12/W14</f>
+        <f t="shared" ref="W13:AC13" si="16">+W12/W14</f>
         <v>1.9123051872528496</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.9378766805748726</v>
       </c>
       <c r="Y13" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.5734443673374972</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.6617511520737327</v>
       </c>
       <c r="AA13" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.2013793103448274</v>
       </c>
       <c r="AB13" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.3952523622954596</v>
       </c>
       <c r="AC13" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.5578703703703702</v>
       </c>
     </row>
@@ -2023,95 +2037,95 @@
         <v>11</v>
       </c>
       <c r="B16" s="3">
-        <f>+B5/B3</f>
+        <f t="shared" ref="B16:Q16" si="17">+B5/B3</f>
         <v>0.61141906873614194</v>
       </c>
       <c r="C16" s="3">
-        <f>+C5/C3</f>
+        <f t="shared" si="17"/>
         <v>0.62612301313061502</v>
       </c>
       <c r="D16" s="3">
-        <f>+D5/D3</f>
+        <f t="shared" si="17"/>
         <v>0.60396335391356304</v>
       </c>
       <c r="E16" s="3">
-        <f>+E5/E3</f>
+        <f t="shared" si="17"/>
         <v>0.56804733727810652</v>
       </c>
       <c r="F16" s="3">
-        <f>+F5/F3</f>
+        <f t="shared" si="17"/>
         <v>0.61004670670098182</v>
       </c>
       <c r="G16" s="3">
-        <f>+G5/G3</f>
+        <f t="shared" si="17"/>
         <v>0.57350993377483439</v>
       </c>
       <c r="H16" s="3">
-        <f>+H5/H3</f>
+        <f t="shared" si="17"/>
         <v>0.58727289162071772</v>
       </c>
       <c r="I16" s="3">
-        <f>+I5/I3</f>
+        <f t="shared" si="17"/>
         <v>0.55427160493827166</v>
       </c>
       <c r="J16" s="3">
-        <f>+J5/J3</f>
+        <f t="shared" si="17"/>
         <v>0.60683060109289622</v>
       </c>
       <c r="K16" s="3">
-        <f>+K5/K3</f>
+        <f t="shared" si="17"/>
         <v>0.58970932175075175</v>
       </c>
       <c r="L16" s="3">
-        <f>+L5/L3</f>
+        <f t="shared" si="17"/>
         <v>0.61039069689617664</v>
       </c>
       <c r="M16" s="3">
-        <f>+M5/M3</f>
+        <f t="shared" si="17"/>
         <v>0.57286385842013088</v>
       </c>
       <c r="N16" s="3">
-        <f>+N5/N3</f>
+        <f t="shared" si="17"/>
         <v>0.62522123893805315</v>
       </c>
       <c r="O16" s="3">
-        <f>+O5/O3</f>
+        <f t="shared" si="17"/>
         <v>0.61077408396020383</v>
       </c>
       <c r="P16" s="3">
-        <f>+P5/P3</f>
+        <f t="shared" si="17"/>
         <v>0.60654631348068166</v>
       </c>
       <c r="Q16" s="3">
-        <f>+Q5/Q3</f>
+        <f t="shared" si="17"/>
         <v>0.60039847539847535</v>
       </c>
       <c r="W16" s="3">
-        <f>+W5/W3</f>
+        <f t="shared" ref="W16:AC16" si="18">+W5/W3</f>
         <v>0.61903790087463562</v>
       </c>
       <c r="X16" s="3">
-        <f>+X5/X3</f>
+        <f t="shared" si="18"/>
         <v>0.60771212365158589</v>
       </c>
       <c r="Y16" s="3">
-        <f>+Y5/Y3</f>
+        <f t="shared" si="18"/>
         <v>0.59311201308535777</v>
       </c>
       <c r="Z16" s="3">
-        <f>+Z5/Z3</f>
+        <f t="shared" si="18"/>
         <v>0.60271633682576642</v>
       </c>
       <c r="AA16" s="3">
-        <f>+AA5/AA3</f>
+        <f t="shared" si="18"/>
         <v>0.58143428518277374</v>
       </c>
       <c r="AB16" s="3">
-        <f>+AB5/AB3</f>
+        <f t="shared" si="18"/>
         <v>0.5952266468505486</v>
       </c>
       <c r="AC16" s="3">
-        <f>+AC5/AC3</f>
+        <f t="shared" si="18"/>
         <v>0.61063300822336963</v>
       </c>
     </row>
@@ -2120,95 +2134,95 @@
         <v>12</v>
       </c>
       <c r="B17" s="3">
-        <f>+B8/B3</f>
+        <f t="shared" ref="B17:Q17" si="19">+B8/B3</f>
         <v>0.31552106430155208</v>
       </c>
       <c r="C17" s="3">
-        <f>+C8/C3</f>
+        <f t="shared" si="19"/>
         <v>0.32826537664132688</v>
       </c>
       <c r="D17" s="3">
-        <f>+D8/D3</f>
+        <f t="shared" si="19"/>
         <v>0.29306910973909578</v>
       </c>
       <c r="E17" s="3">
-        <f>+E8/E3</f>
+        <f t="shared" si="19"/>
         <v>0.21555367709213863</v>
       </c>
       <c r="F17" s="3">
-        <f>+F8/F3</f>
+        <f t="shared" si="19"/>
         <v>0.32723286626632353</v>
       </c>
       <c r="G17" s="3">
-        <f>+G8/G3</f>
+        <f t="shared" si="19"/>
         <v>0.29068432671081679</v>
       </c>
       <c r="H17" s="3">
-        <f>+H8/H3</f>
+        <f t="shared" si="19"/>
         <v>0.2908795082708126</v>
       </c>
       <c r="I17" s="3">
-        <f>+I8/I3</f>
+        <f t="shared" si="19"/>
         <v>0.21540740740740741</v>
       </c>
       <c r="J17" s="3">
-        <f>+J8/J3</f>
+        <f t="shared" si="19"/>
         <v>0.3167577413479053</v>
       </c>
       <c r="K17" s="3">
-        <f>+K8/K3</f>
+        <f t="shared" si="19"/>
         <v>0.31231206147677915</v>
       </c>
       <c r="L17" s="3">
-        <f>+L8/L3</f>
+        <f t="shared" si="19"/>
         <v>0.30360578934158788</v>
       </c>
       <c r="M17" s="3">
-        <f>+M8/M3</f>
+        <f t="shared" si="19"/>
         <v>0.22269333579131717</v>
       </c>
       <c r="N17" s="3">
-        <f>+N8/N3</f>
+        <f t="shared" si="19"/>
         <v>0.32867256637168141</v>
       </c>
       <c r="O17" s="3">
-        <f>+O8/O3</f>
+        <f t="shared" si="19"/>
         <v>0.3237078379034215</v>
       </c>
       <c r="P17" s="3">
-        <f>+P8/P3</f>
+        <f t="shared" si="19"/>
         <v>0.29981440863843428</v>
       </c>
       <c r="Q17" s="3">
-        <f>+Q8/Q3</f>
+        <f t="shared" si="19"/>
         <v>0.24991337491337492</v>
       </c>
       <c r="W17" s="3">
-        <f>+W8/W3</f>
+        <f t="shared" ref="W17:AC17" si="20">+W8/W3</f>
         <v>0.29827988338192418</v>
       </c>
       <c r="X17" s="3">
-        <f>+X8/X3</f>
+        <f t="shared" si="20"/>
         <v>0.28293887189395162</v>
       </c>
       <c r="Y17" s="3">
-        <f>+Y8/Y3</f>
+        <f t="shared" si="20"/>
         <v>0.29835827224813716</v>
       </c>
       <c r="Z17" s="3">
-        <f>+Z8/Z3</f>
+        <f t="shared" si="20"/>
         <v>0.2885525805199845</v>
       </c>
       <c r="AA17" s="3">
-        <f>+AA8/AA3</f>
+        <f t="shared" si="20"/>
         <v>0.2819272625802251</v>
       </c>
       <c r="AB17" s="3">
-        <f>+AB8/AB3</f>
+        <f t="shared" si="20"/>
         <v>0.28985443895615681</v>
       </c>
       <c r="AC17" s="3">
-        <f>+AC8/AC3</f>
+        <f t="shared" si="20"/>
         <v>0.30077983893244936</v>
       </c>
     </row>
@@ -2217,95 +2231,95 @@
         <v>13</v>
       </c>
       <c r="B18" s="3">
-        <f>+B12/B3</f>
+        <f t="shared" ref="B18:Q18" si="21">+B12/B3</f>
         <v>0.21751662971175167</v>
       </c>
       <c r="C18" s="3">
-        <f>+C12/C3</f>
+        <f t="shared" si="21"/>
         <v>0.16013426794352847</v>
       </c>
       <c r="D18" s="3">
-        <f>+D12/D3</f>
+        <f t="shared" si="21"/>
         <v>0.21828321051583349</v>
       </c>
       <c r="E18" s="3">
-        <f>+E12/E3</f>
+        <f t="shared" si="21"/>
         <v>0.15173288250211328</v>
       </c>
       <c r="F18" s="3">
-        <f>+F12/F3</f>
+        <f t="shared" si="21"/>
         <v>0.25393194166428368</v>
       </c>
       <c r="G18" s="3">
-        <f>+G12/G3</f>
+        <f t="shared" si="21"/>
         <v>0.24812362030905077</v>
       </c>
       <c r="H18" s="3">
-        <f>+H12/H3</f>
+        <f t="shared" si="21"/>
         <v>0.22832866311127181</v>
       </c>
       <c r="I18" s="3">
-        <f>+I12/I3</f>
+        <f t="shared" si="21"/>
         <v>0.15565432098765433</v>
       </c>
       <c r="J18" s="3">
-        <f>+J12/J3</f>
+        <f t="shared" si="21"/>
         <v>0.21256830601092896</v>
       </c>
       <c r="K18" s="3">
-        <f>+K12/K3</f>
+        <f t="shared" si="21"/>
         <v>0.26979619111259606</v>
       </c>
       <c r="L18" s="3">
-        <f>+L12/L3</f>
+        <f t="shared" si="21"/>
         <v>0.25558437212415291</v>
       </c>
       <c r="M18" s="3">
-        <f>+M12/M3</f>
+        <f t="shared" si="21"/>
         <v>0.16351737487326021</v>
       </c>
       <c r="N18" s="3">
-        <f>+N12/N3</f>
+        <f t="shared" si="21"/>
         <v>0.25584070796460179</v>
       </c>
       <c r="O18" s="3">
-        <f>+O12/O3</f>
+        <f t="shared" si="21"/>
         <v>0.26142522041575672</v>
       </c>
       <c r="P18" s="3">
-        <f>+P12/P3</f>
+        <f t="shared" si="21"/>
         <v>0.24143748945503626</v>
       </c>
       <c r="Q18" s="3">
-        <f>+Q12/Q3</f>
+        <f t="shared" si="21"/>
         <v>0.17888080388080388</v>
       </c>
       <c r="W18" s="3">
-        <f>+W12/W3</f>
+        <f t="shared" ref="W18:AC18" si="22">+W12/W3</f>
         <v>0.23967930029154519</v>
       </c>
       <c r="X18" s="3">
-        <f>+X12/X3</f>
+        <f t="shared" si="22"/>
         <v>0.2243331723286642</v>
       </c>
       <c r="Y18" s="3">
-        <f>+Y12/Y3</f>
+        <f t="shared" si="22"/>
         <v>0.20603380384079481</v>
       </c>
       <c r="Z18" s="3">
-        <f>+Z12/Z3</f>
+        <f t="shared" si="22"/>
         <v>0.18657353511835467</v>
       </c>
       <c r="AA18" s="3">
-        <f>+AA12/AA3</f>
+        <f t="shared" si="22"/>
         <v>0.2226769602827644</v>
       </c>
       <c r="AB18" s="3">
-        <f>+AB12/AB3</f>
+        <f t="shared" si="22"/>
         <v>0.22714953883813438</v>
       </c>
       <c r="AC18" s="3">
-        <f>+AC12/AC3</f>
+        <f t="shared" si="22"/>
         <v>0.23480164042413038</v>
       </c>
     </row>
@@ -2314,95 +2328,95 @@
         <v>14</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" ref="B19:P19" si="13">+B11/B10</f>
+        <f t="shared" ref="B19:P19" si="23">+B11/B10</f>
         <v>0.20566801619433198</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.37996941896024466</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.21742234916101391</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.26207605344295992</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.19975968759387203</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.12022542266750157</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.19758576874205844</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.2198019801980198</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.28711056811240071</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.10002786291446085</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.12938159019663723</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.2185022026431718</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.19200670765790945</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.16247732573205495</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.15625</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" ref="Q19" si="14">+Q11/Q10</f>
+        <f t="shared" ref="Q19" si="24">+Q11/Q10</f>
         <v>0.22310007524454478</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" ref="W19:AB19" si="15">+W11/W10</f>
+        <f t="shared" ref="W19:AB19" si="25">+W11/W10</f>
         <v>0.17542627883650952</v>
       </c>
       <c r="X19" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.17724633402224191</v>
       </c>
       <c r="Y19" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.22554935671182966</v>
       </c>
       <c r="Z19" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.26655140852232279</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.18090839107005388</v>
       </c>
       <c r="AB19" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.17789906660338553</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" ref="AC19" si="16">+AC11/AC10</f>
+        <f t="shared" ref="AC19" si="26">+AC11/AC10</f>
         <v>0.18069251872173203</v>
       </c>
     </row>
@@ -2412,79 +2426,79 @@
         <v>15</v>
       </c>
       <c r="F21" s="6">
-        <f>+F3/B3-1</f>
+        <f t="shared" ref="F21:Q21" si="27">+F3/B3-1</f>
         <v>0.16308203991130821</v>
       </c>
       <c r="G21" s="6">
-        <f>+G3/C3-1</f>
+        <f t="shared" si="27"/>
         <v>0.11807680916181251</v>
       </c>
       <c r="H21" s="6">
-        <f>+H3/D3-1</f>
+        <f t="shared" si="27"/>
         <v>0.10167297351125271</v>
       </c>
       <c r="I21" s="6">
-        <f>+I3/E3-1</f>
+        <f t="shared" si="27"/>
         <v>6.9843617920541057E-2</v>
       </c>
       <c r="J21" s="6">
-        <f>+J3/F3-1</f>
+        <f t="shared" si="27"/>
         <v>4.661138118387198E-2</v>
       </c>
       <c r="K21" s="6">
-        <f>+K3/G3-1</f>
+        <f t="shared" si="27"/>
         <v>5.713024282560708E-2</v>
       </c>
       <c r="L21" s="6">
-        <f>+L3/H3-1</f>
+        <f t="shared" si="27"/>
         <v>8.0448341317906458E-2</v>
       </c>
       <c r="M21" s="6">
-        <f>+M3/I3-1</f>
+        <f t="shared" si="27"/>
         <v>7.150617283950611E-2</v>
       </c>
       <c r="N21" s="6">
-        <f>+N3/J3-1</f>
+        <f t="shared" si="27"/>
         <v>2.9143897996356971E-2</v>
       </c>
       <c r="O21" s="6">
-        <f>+O3/K3-1</f>
+        <f t="shared" si="27"/>
         <v>3.2659538924156406E-2</v>
       </c>
       <c r="P21" s="6">
-        <f>+P3/L3-1</f>
+        <f t="shared" si="27"/>
         <v>-8.2824395549234708E-3</v>
       </c>
       <c r="Q21" s="6">
-        <f>+Q3/M3-1</f>
+        <f t="shared" si="27"/>
         <v>6.4061203797584954E-2</v>
       </c>
       <c r="W21" s="6" t="e">
-        <f>+W3/V3-1</f>
+        <f t="shared" ref="W21:AC21" si="28">+W3/V3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X21" s="6">
-        <f>+X3/W3-1</f>
+        <f t="shared" si="28"/>
         <v>8.647230320699717E-2</v>
       </c>
       <c r="Y21" s="6">
-        <f>+Y3/X3-1</f>
+        <f t="shared" si="28"/>
         <v>-0.11409864219395693</v>
       </c>
       <c r="Z21" s="6">
-        <f>+Z3/Y3-1</f>
+        <f t="shared" si="28"/>
         <v>0.17086690494941537</v>
       </c>
       <c r="AA21" s="6">
-        <f>+AA3/Z3-1</f>
+        <f t="shared" si="28"/>
         <v>0.11250808433579107</v>
       </c>
       <c r="AB21" s="6">
-        <f>+AB3/AA3-1</f>
+        <f t="shared" si="28"/>
         <v>6.3947539763743011E-2</v>
       </c>
       <c r="AC21" s="6">
-        <f>+AC3/AB3-1</f>
+        <f t="shared" si="28"/>
         <v>2.8565808453905772E-2</v>
       </c>
     </row>

--- a/KO.xlsx
+++ b/KO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\ModelsResearchMetrics\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53A2C23-F2A5-449D-B2B3-62A10FE2E6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B59FCC-04E4-4C9B-93C5-9D37BEECF1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F37AADAF-9095-4FBF-B04C-8FF06AD1A01B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{F37AADAF-9095-4FBF-B04C-8FF06AD1A01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
   <si>
     <t>Revenue</t>
   </si>
@@ -160,14 +160,129 @@
   </si>
   <si>
     <t>Interest</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Net cash</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Prepaid</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>ONCL</t>
+  </si>
+  <si>
+    <t>Liabilties</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>L+S/E</t>
+  </si>
+  <si>
+    <t>NI TTM</t>
+  </si>
+  <si>
+    <t>ROTA</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>Significant</t>
+  </si>
+  <si>
+    <t>Other charges</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>Disposal</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Collateral</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Issuances stock</t>
+  </si>
+  <si>
+    <t>Buybacks</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0\x"/>
+    <numFmt numFmtId="167" formatCode="d/mm/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -210,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -225,6 +340,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,16 +362,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -270,8 +386,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10887075" y="0"/>
-          <a:ext cx="0" cy="5676900"/>
+          <a:off x="11496675" y="0"/>
+          <a:ext cx="0" cy="12515850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -296,16 +412,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -320,8 +436,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18221325" y="0"/>
-          <a:ext cx="0" cy="5676900"/>
+          <a:off x="20050125" y="0"/>
+          <a:ext cx="0" cy="7334250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -666,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A322F3-21BD-4533-8CCD-3A109B019443}">
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -685,7 +801,7 @@
         <v>32</v>
       </c>
       <c r="L3">
-        <v>71.930000000000007</v>
+        <v>72.13</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -693,10 +809,11 @@
         <v>10</v>
       </c>
       <c r="L4" s="1">
-        <v>4301.000395</v>
+        <f>+Model!R14</f>
+        <v>4313</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -705,7 +822,7 @@
       </c>
       <c r="L5" s="1">
         <f>+L3*L4</f>
-        <v>309370.95841235004</v>
+        <v>311096.69</v>
       </c>
       <c r="M5" s="8"/>
     </row>
@@ -714,11 +831,11 @@
         <v>34</v>
       </c>
       <c r="L6" s="1">
-        <f>10828+2020+1723+18087</f>
-        <v>32658</v>
+        <f>+Model!R24</f>
+        <v>32156</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -726,11 +843,11 @@
         <v>35</v>
       </c>
       <c r="L7" s="1">
-        <f>648+1499+42375</f>
-        <v>44522</v>
+        <f>+Model!R34</f>
+        <v>49111</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -739,18 +856,18 @@
       </c>
       <c r="L8" s="1">
         <f>+L5-L6+L7</f>
-        <v>321234.95841235004</v>
+        <v>328051.69</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L9" s="1">
-        <v>11050</v>
+        <v>10962</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L10" s="9">
         <f>+L8/L9</f>
-        <v>29.07103696039367</v>
+        <v>29.926262543331511</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -817,13 +934,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA134AB-FCE9-44C3-9AEE-3724BF2ACD4F}">
-  <dimension ref="A2:AM21"/>
+  <dimension ref="A1:AP74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -832,7 +949,15 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N1" s="10">
+        <v>45380</v>
+      </c>
+      <c r="R1" s="10">
+        <v>45744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -882,91 +1007,96 @@
       <c r="Q2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S2">
+      <c r="R2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="V2">
         <v>2014</v>
       </c>
-      <c r="T2">
-        <f>+S2+1</f>
+      <c r="W2">
+        <f>+V2+1</f>
         <v>2015</v>
       </c>
-      <c r="U2">
-        <f t="shared" ref="U2:AM2" si="0">+T2+1</f>
+      <c r="X2">
+        <f t="shared" ref="X2:AP2" si="0">+W2+1</f>
         <v>2016</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="X2">
+      <c r="AA2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="Y2">
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AA2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AE2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AF2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AG2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AH2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AI2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AJ2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AK2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AL2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AM2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -980,7 +1110,7 @@
         <v>10042</v>
       </c>
       <c r="E3" s="5">
-        <f>+Z3-SUM(B3:D3)</f>
+        <f>+AC3-SUM(B3:D3)</f>
         <v>9464</v>
       </c>
       <c r="F3" s="5">
@@ -993,7 +1123,7 @@
         <v>11063</v>
       </c>
       <c r="I3" s="5">
-        <f>+AA3-SUM(F3:H3)</f>
+        <f>+AD3-SUM(F3:H3)</f>
         <v>10125</v>
       </c>
       <c r="J3" s="5">
@@ -1006,7 +1136,7 @@
         <v>11953</v>
       </c>
       <c r="M3" s="5">
-        <f>+AB3-SUM(J3:L3)</f>
+        <f>+AE3-SUM(J3:L3)</f>
         <v>10849</v>
       </c>
       <c r="N3" s="5">
@@ -1019,32 +1149,35 @@
         <v>11854</v>
       </c>
       <c r="Q3" s="5">
-        <f>+AC3-SUM(N3:P3)</f>
+        <f>+AF3-SUM(N3:P3)</f>
         <v>11544</v>
       </c>
-      <c r="W3" s="5">
+      <c r="R3" s="5">
+        <v>11129</v>
+      </c>
+      <c r="Z3" s="5">
         <v>34300</v>
       </c>
-      <c r="X3" s="5">
+      <c r="AA3" s="5">
         <v>37266</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="AB3" s="5">
         <v>33014</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="AC3" s="5">
         <v>38655</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AD3" s="5">
         <v>43004</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AE3" s="5">
         <v>45754</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AF3" s="5">
         <v>47061</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1058,7 +1191,7 @@
         <v>3977</v>
       </c>
       <c r="E4" s="1">
-        <f>+Z4-SUM(B4:D4)</f>
+        <f>+AC4-SUM(B4:D4)</f>
         <v>4088</v>
       </c>
       <c r="F4" s="1">
@@ -1071,7 +1204,7 @@
         <v>4566</v>
       </c>
       <c r="I4" s="1">
-        <f>+AA4-SUM(F4:H4)</f>
+        <f>+AD4-SUM(F4:H4)</f>
         <v>4513</v>
       </c>
       <c r="J4" s="1">
@@ -1084,7 +1217,7 @@
         <v>4657</v>
       </c>
       <c r="M4" s="1">
-        <f>+AB4-SUM(J4:L4)</f>
+        <f>+AE4-SUM(J4:L4)</f>
         <v>4634</v>
       </c>
       <c r="N4" s="1">
@@ -1097,32 +1230,35 @@
         <v>4664</v>
       </c>
       <c r="Q4" s="1">
-        <f>+AC4-SUM(N4:P4)</f>
+        <f>+AF4-SUM(N4:P4)</f>
         <v>4613</v>
       </c>
-      <c r="W4" s="1">
+      <c r="R4" s="1">
+        <v>4163</v>
+      </c>
+      <c r="Z4" s="1">
         <v>13067</v>
       </c>
-      <c r="X4" s="1">
+      <c r="AA4" s="1">
         <v>14619</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AB4" s="1">
         <v>13433</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AC4" s="1">
         <v>15357</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AD4" s="1">
         <v>18000</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AE4" s="1">
         <v>18520</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AF4" s="1">
         <v>18324</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1190,36 +1326,40 @@
         <f t="shared" si="1"/>
         <v>6931</v>
       </c>
-      <c r="W5" s="1">
-        <f t="shared" ref="W5:AC5" si="2">+W3-W4</f>
+      <c r="R5" s="1">
+        <f t="shared" ref="R5" si="2">+R3-R4</f>
+        <v>6966</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" ref="Z5:AF5" si="3">+Z3-Z4</f>
         <v>21233</v>
       </c>
-      <c r="X5" s="1">
-        <f t="shared" si="2"/>
+      <c r="AA5" s="1">
+        <f t="shared" si="3"/>
         <v>22647</v>
       </c>
-      <c r="Y5" s="1">
-        <f t="shared" si="2"/>
+      <c r="AB5" s="1">
+        <f t="shared" si="3"/>
         <v>19581</v>
       </c>
-      <c r="Z5" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC5" s="1">
+        <f t="shared" si="3"/>
         <v>23298</v>
       </c>
-      <c r="AA5" s="1">
-        <f t="shared" si="2"/>
+      <c r="AD5" s="1">
+        <f t="shared" si="3"/>
         <v>25004</v>
       </c>
-      <c r="AB5" s="1">
-        <f t="shared" si="2"/>
+      <c r="AE5" s="1">
+        <f t="shared" si="3"/>
         <v>27234</v>
       </c>
-      <c r="AC5" s="1">
-        <f t="shared" si="2"/>
+      <c r="AF5" s="1">
+        <f t="shared" si="3"/>
         <v>28737</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1233,7 +1373,7 @@
         <v>3122</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6" si="3">+Z6-SUM(B6:D6)</f>
+        <f t="shared" ref="E6" si="4">+AC6-SUM(B6:D6)</f>
         <v>3336</v>
       </c>
       <c r="F6" s="1">
@@ -1246,7 +1386,7 @@
         <v>3279</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6" si="4">+AA6-SUM(F6:H6)</f>
+        <f t="shared" ref="I6" si="5">+AD6-SUM(F6:H6)</f>
         <v>3431</v>
       </c>
       <c r="J6" s="1">
@@ -1259,7 +1399,7 @@
         <v>3667</v>
       </c>
       <c r="M6" s="1">
-        <f>+AB6-SUM(J6:L6)</f>
+        <f>+AE6-SUM(J6:L6)</f>
         <v>3799</v>
       </c>
       <c r="N6" s="1">
@@ -1272,226 +1412,237 @@
         <v>3636</v>
       </c>
       <c r="Q6" s="1">
-        <f>+AC6-SUM(N6:P6)</f>
+        <f>+AF6-SUM(N6:P6)</f>
         <v>4046</v>
       </c>
-      <c r="W6" s="1">
+      <c r="R6" s="1">
+        <v>3234</v>
+      </c>
+      <c r="Z6" s="1">
         <v>11002</v>
       </c>
-      <c r="X6" s="1">
+      <c r="AA6" s="1">
         <v>12103</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AB6" s="1">
         <v>9731</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AC6" s="1">
         <v>12144</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AD6" s="1">
         <v>12880</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AE6" s="1">
         <v>13972</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AF6" s="1">
         <v>14582</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7:Q7" si="5">+SUM(B6:B6)</f>
+        <f t="shared" ref="B7:Q7" si="6">+SUM(B6:B6)</f>
         <v>2669</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3017</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3122</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3336</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2967</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3203</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3279</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3431</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3185</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3321</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3667</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3799</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3351</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3549</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3636</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4046</v>
       </c>
-      <c r="W7" s="1">
-        <f t="shared" ref="W7:AC7" si="6">+SUM(W6:W6)</f>
+      <c r="R7" s="1">
+        <f t="shared" ref="R7" si="7">+SUM(R6:R6)</f>
+        <v>3234</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" ref="Z7:AF7" si="8">+SUM(Z6:Z6)</f>
         <v>11002</v>
       </c>
-      <c r="X7" s="1">
-        <f t="shared" si="6"/>
+      <c r="AA7" s="1">
+        <f t="shared" si="8"/>
         <v>12103</v>
       </c>
-      <c r="Y7" s="1">
-        <f t="shared" si="6"/>
+      <c r="AB7" s="1">
+        <f t="shared" si="8"/>
         <v>9731</v>
       </c>
-      <c r="Z7" s="1">
-        <f t="shared" si="6"/>
+      <c r="AC7" s="1">
+        <f t="shared" si="8"/>
         <v>12144</v>
       </c>
-      <c r="AA7" s="1">
-        <f t="shared" si="6"/>
+      <c r="AD7" s="1">
+        <f t="shared" si="8"/>
         <v>12880</v>
       </c>
-      <c r="AB7" s="1">
-        <f t="shared" si="6"/>
+      <c r="AE7" s="1">
+        <f t="shared" si="8"/>
         <v>13972</v>
       </c>
-      <c r="AC7" s="1">
-        <f t="shared" si="6"/>
+      <c r="AF7" s="1">
+        <f t="shared" si="8"/>
         <v>14582</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5">
-        <f t="shared" ref="B8:Q8" si="7">+B5-B7</f>
+        <f t="shared" ref="B8:Q8" si="9">+B5-B7</f>
         <v>2846</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3325</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2943</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2040</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3433</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3292</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3218</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2181</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3478</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3739</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3629</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2416</v>
       </c>
       <c r="N8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3714</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4002</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3554</v>
       </c>
       <c r="Q8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2885</v>
       </c>
-      <c r="W8" s="5">
-        <f t="shared" ref="W8:AC8" si="8">+W5-W7</f>
+      <c r="R8" s="5">
+        <f t="shared" ref="R8" si="10">+R5-R7</f>
+        <v>3732</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" ref="Z8:AF8" si="11">+Z5-Z7</f>
         <v>10231</v>
       </c>
-      <c r="X8" s="5">
-        <f t="shared" si="8"/>
+      <c r="AA8" s="5">
+        <f t="shared" si="11"/>
         <v>10544</v>
       </c>
-      <c r="Y8" s="5">
-        <f t="shared" si="8"/>
+      <c r="AB8" s="5">
+        <f t="shared" si="11"/>
         <v>9850</v>
       </c>
-      <c r="Z8" s="5">
-        <f t="shared" si="8"/>
+      <c r="AC8" s="5">
+        <f t="shared" si="11"/>
         <v>11154</v>
       </c>
-      <c r="AA8" s="5">
-        <f t="shared" si="8"/>
+      <c r="AD8" s="5">
+        <f t="shared" si="11"/>
         <v>12124</v>
       </c>
-      <c r="AB8" s="5">
-        <f t="shared" si="8"/>
+      <c r="AE8" s="5">
+        <f t="shared" si="11"/>
         <v>13262</v>
       </c>
-      <c r="AC8" s="5">
-        <f t="shared" si="8"/>
+      <c r="AF8" s="5">
+        <f t="shared" si="11"/>
         <v>14155</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1508,7 +1659,7 @@
         <v>-142</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9:E11" si="9">+Z9-SUM(B9:D9)</f>
+        <f t="shared" ref="E9:E11" si="12">+AC9-SUM(B9:D9)</f>
         <v>-94</v>
       </c>
       <c r="F9" s="1">
@@ -1524,7 +1675,7 @@
         <v>-70</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ref="I9:I11" si="10">+AA9-SUM(F9:H9)</f>
+        <f t="shared" ref="I9:I11" si="13">+AD9-SUM(F9:H9)</f>
         <v>-161</v>
       </c>
       <c r="J9" s="1">
@@ -1540,7 +1691,7 @@
         <v>-120</v>
       </c>
       <c r="M9" s="1">
-        <f>+AB9-SUM(J9:L9)</f>
+        <f>+AE9-SUM(J9:L9)</f>
         <v>-146</v>
       </c>
       <c r="N9" s="1">
@@ -1556,136 +1707,144 @@
         <v>-162</v>
       </c>
       <c r="Q9" s="1">
-        <f>+AC9-SUM(N9:P9)</f>
+        <f>+AF9-SUM(N9:P9)</f>
         <v>-227</v>
       </c>
-      <c r="W9" s="1">
+      <c r="R9" s="1">
+        <f>180-387</f>
+        <v>-207</v>
+      </c>
+      <c r="Z9" s="1">
         <f>689-950</f>
         <v>-261</v>
       </c>
-      <c r="X9" s="1">
+      <c r="AA9" s="1">
         <f>563-946</f>
         <v>-383</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AB9" s="1">
         <f>370-1437</f>
         <v>-1067</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AC9" s="1">
         <f>276-1597</f>
         <v>-1321</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AD9" s="1">
         <f>449-882</f>
         <v>-433</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AE9" s="1">
         <f>907-1527</f>
         <v>-620</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AF9" s="1">
         <f>988-1656</f>
         <v>-668</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10:Q10" si="11">+B8+B9</f>
+        <f t="shared" ref="B10:Q10" si="14">+B8+B9</f>
         <v>2470</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2616</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2801</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1946</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3329</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3194</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3148</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2020</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3274</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3589</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3509</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2270</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3578</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3859</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3392</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2658</v>
       </c>
-      <c r="W10" s="1">
-        <f t="shared" ref="W10:AC10" si="12">+W8+W9</f>
+      <c r="R10" s="1">
+        <f t="shared" ref="R10" si="15">+R8+R9</f>
+        <v>3525</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" ref="Z10:AF10" si="16">+Z8+Z9</f>
         <v>9970</v>
       </c>
-      <c r="X10" s="1">
-        <f t="shared" si="12"/>
+      <c r="AA10" s="1">
+        <f t="shared" si="16"/>
         <v>10161</v>
       </c>
-      <c r="Y10" s="1">
-        <f t="shared" si="12"/>
+      <c r="AB10" s="1">
+        <f t="shared" si="16"/>
         <v>8783</v>
       </c>
-      <c r="Z10" s="1">
-        <f t="shared" si="12"/>
+      <c r="AC10" s="1">
+        <f t="shared" si="16"/>
         <v>9833</v>
       </c>
-      <c r="AA10" s="1">
-        <f t="shared" si="12"/>
+      <c r="AD10" s="1">
+        <f t="shared" si="16"/>
         <v>11691</v>
       </c>
-      <c r="AB10" s="1">
-        <f t="shared" si="12"/>
+      <c r="AE10" s="1">
+        <f t="shared" si="16"/>
         <v>12642</v>
       </c>
-      <c r="AC10" s="1">
-        <f t="shared" si="12"/>
+      <c r="AF10" s="1">
+        <f t="shared" si="16"/>
         <v>13487</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1699,7 +1858,7 @@
         <v>609</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>510</v>
       </c>
       <c r="F11" s="1">
@@ -1712,7 +1871,7 @@
         <v>622</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>444</v>
       </c>
       <c r="J11" s="1">
@@ -1725,7 +1884,7 @@
         <v>454</v>
       </c>
       <c r="M11" s="1">
-        <f>+AB11-SUM(J11:L11)</f>
+        <f>+AE11-SUM(J11:L11)</f>
         <v>496</v>
       </c>
       <c r="N11" s="1">
@@ -1738,226 +1897,237 @@
         <v>530</v>
       </c>
       <c r="Q11" s="1">
-        <f>+AC11-SUM(N11:P11)</f>
+        <f>+AF11-SUM(N11:P11)</f>
         <v>593</v>
       </c>
-      <c r="W11" s="1">
+      <c r="R11" s="1">
+        <v>722</v>
+      </c>
+      <c r="Z11" s="1">
         <v>1749</v>
       </c>
-      <c r="X11" s="1">
+      <c r="AA11" s="1">
         <v>1801</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AB11" s="1">
         <v>1981</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AC11" s="1">
         <v>2621</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AD11" s="1">
         <v>2115</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AE11" s="1">
         <v>2249</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AF11" s="1">
         <v>2437</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="5">
-        <f t="shared" ref="B12:Q12" si="13">+B10-B11</f>
+        <f t="shared" ref="B12:Q12" si="17">+B10-B11</f>
         <v>1962</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1622</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2192</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1436</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2664</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2810</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2526</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1576</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2334</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3230</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3055</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1774</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2891</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3232</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2862</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2065</v>
       </c>
-      <c r="W12" s="5">
-        <f t="shared" ref="W12:AC12" si="14">+W10-W11</f>
+      <c r="R12" s="5">
+        <f t="shared" ref="R12" si="18">+R10-R11</f>
+        <v>2803</v>
+      </c>
+      <c r="Z12" s="5">
+        <f t="shared" ref="Z12:AF12" si="19">+Z10-Z11</f>
         <v>8221</v>
       </c>
-      <c r="X12" s="5">
-        <f t="shared" si="14"/>
+      <c r="AA12" s="5">
+        <f t="shared" si="19"/>
         <v>8360</v>
       </c>
-      <c r="Y12" s="5">
-        <f t="shared" si="14"/>
+      <c r="AB12" s="5">
+        <f t="shared" si="19"/>
         <v>6802</v>
       </c>
-      <c r="Z12" s="5">
-        <f t="shared" si="14"/>
+      <c r="AC12" s="5">
+        <f t="shared" si="19"/>
         <v>7212</v>
       </c>
-      <c r="AA12" s="5">
-        <f t="shared" si="14"/>
+      <c r="AD12" s="5">
+        <f t="shared" si="19"/>
         <v>9576</v>
       </c>
-      <c r="AB12" s="5">
-        <f t="shared" si="14"/>
+      <c r="AE12" s="5">
+        <f t="shared" si="19"/>
         <v>10393</v>
       </c>
-      <c r="AC12" s="5">
-        <f t="shared" si="14"/>
+      <c r="AF12" s="5">
+        <f t="shared" si="19"/>
         <v>11050</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <f t="shared" ref="B13:Q13" si="15">+B12/B14</f>
+        <f t="shared" ref="B13:Q13" si="20">+B12/B14</f>
         <v>0.45311778290993071</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.37390502535730752</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.50460405156537758</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.3305709023941068</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.61142988294698186</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.64553181713760621</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.58122411412793373</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.3626323055683387</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.53716915995397008</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.74406818705367428</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.7040792809403088</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.40884996542982255</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.66890328551596479</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.74832137068765914</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.66204024982650933</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.47845227062094531</v>
       </c>
-      <c r="W13" s="4">
-        <f t="shared" ref="W13:AC13" si="16">+W12/W14</f>
+      <c r="R13" s="4">
+        <f t="shared" ref="R13" si="21">+R12/R14</f>
+        <v>0.64989566427080914</v>
+      </c>
+      <c r="Z13" s="4">
+        <f t="shared" ref="Z13:AF13" si="22">+Z12/Z14</f>
         <v>1.9123051872528496</v>
       </c>
-      <c r="X13" s="4">
-        <f t="shared" si="16"/>
+      <c r="AA13" s="4">
+        <f t="shared" si="22"/>
         <v>1.9378766805748726</v>
       </c>
-      <c r="Y13" s="4">
-        <f t="shared" si="16"/>
+      <c r="AB13" s="4">
+        <f t="shared" si="22"/>
         <v>1.5734443673374972</v>
       </c>
-      <c r="Z13" s="4">
-        <f t="shared" si="16"/>
+      <c r="AC13" s="4">
+        <f t="shared" si="22"/>
         <v>1.6617511520737327</v>
       </c>
-      <c r="AA13" s="4">
-        <f t="shared" si="16"/>
+      <c r="AD13" s="4">
+        <f t="shared" si="22"/>
         <v>2.2013793103448274</v>
       </c>
-      <c r="AB13" s="4">
-        <f t="shared" si="16"/>
+      <c r="AE13" s="4">
+        <f t="shared" si="22"/>
         <v>2.3952523622954596</v>
       </c>
-      <c r="AC13" s="4">
-        <f t="shared" si="16"/>
+      <c r="AF13" s="4">
+        <f t="shared" si="22"/>
         <v>2.5578703703703702</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -2007,499 +2177,912 @@
         <v>4323</v>
       </c>
       <c r="Q14" s="1">
-        <f>+(AC14*4)-SUM(N14:P14)</f>
+        <f>+(AF14*4)-SUM(N14:P14)</f>
         <v>4316</v>
       </c>
-      <c r="W14" s="1">
+      <c r="R14" s="1">
+        <v>4313</v>
+      </c>
+      <c r="Z14" s="1">
         <v>4299</v>
       </c>
-      <c r="X14" s="1">
+      <c r="AA14" s="1">
         <v>4314</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="AB14" s="1">
         <v>4323</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AC14" s="1">
         <v>4340</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AD14" s="1">
         <v>4350</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AE14" s="1">
         <v>4339</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AF14" s="1">
         <v>4320</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" ref="B16:Q16" si="17">+B5/B3</f>
+        <f t="shared" ref="B16:Q16" si="23">+B5/B3</f>
         <v>0.61141906873614194</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.62612301313061502</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.60396335391356304</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.56804733727810652</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.61004670670098182</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.57350993377483439</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.58727289162071772</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.55427160493827166</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.60683060109289622</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.58970932175075175</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.61039069689617664</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.57286385842013088</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.62522123893805315</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.61077408396020383</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.60654631348068166</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.60039847539847535</v>
       </c>
-      <c r="W16" s="3">
-        <f t="shared" ref="W16:AC16" si="18">+W5/W3</f>
+      <c r="R16" s="3">
+        <f t="shared" ref="R16" si="24">+R5/R3</f>
+        <v>0.62593224907898282</v>
+      </c>
+      <c r="Z16" s="3">
+        <f t="shared" ref="Z16:AF16" si="25">+Z5/Z3</f>
         <v>0.61903790087463562</v>
       </c>
-      <c r="X16" s="3">
-        <f t="shared" si="18"/>
+      <c r="AA16" s="3">
+        <f t="shared" si="25"/>
         <v>0.60771212365158589</v>
       </c>
-      <c r="Y16" s="3">
-        <f t="shared" si="18"/>
+      <c r="AB16" s="3">
+        <f t="shared" si="25"/>
         <v>0.59311201308535777</v>
       </c>
-      <c r="Z16" s="3">
-        <f t="shared" si="18"/>
+      <c r="AC16" s="3">
+        <f t="shared" si="25"/>
         <v>0.60271633682576642</v>
       </c>
-      <c r="AA16" s="3">
-        <f t="shared" si="18"/>
+      <c r="AD16" s="3">
+        <f t="shared" si="25"/>
         <v>0.58143428518277374</v>
       </c>
-      <c r="AB16" s="3">
-        <f t="shared" si="18"/>
+      <c r="AE16" s="3">
+        <f t="shared" si="25"/>
         <v>0.5952266468505486</v>
       </c>
-      <c r="AC16" s="3">
-        <f t="shared" si="18"/>
+      <c r="AF16" s="3">
+        <f t="shared" si="25"/>
         <v>0.61063300822336963</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" ref="B17:Q17" si="19">+B8/B3</f>
+        <f t="shared" ref="B17:Q17" si="26">+B8/B3</f>
         <v>0.31552106430155208</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.32826537664132688</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.29306910973909578</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.21555367709213863</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.32723286626632353</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.29068432671081679</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.2908795082708126</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.21540740740740741</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.3167577413479053</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.31231206147677915</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.30360578934158788</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.22269333579131717</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.32867256637168141</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.3237078379034215</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.29981440863843428</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.24991337491337492</v>
       </c>
-      <c r="W17" s="3">
-        <f t="shared" ref="W17:AC17" si="20">+W8/W3</f>
+      <c r="R17" s="3">
+        <f t="shared" ref="R17" si="27">+R8/R3</f>
+        <v>0.3353401024350795</v>
+      </c>
+      <c r="Z17" s="3">
+        <f t="shared" ref="Z17:AF17" si="28">+Z8/Z3</f>
         <v>0.29827988338192418</v>
       </c>
-      <c r="X17" s="3">
-        <f t="shared" si="20"/>
+      <c r="AA17" s="3">
+        <f t="shared" si="28"/>
         <v>0.28293887189395162</v>
       </c>
-      <c r="Y17" s="3">
-        <f t="shared" si="20"/>
+      <c r="AB17" s="3">
+        <f t="shared" si="28"/>
         <v>0.29835827224813716</v>
       </c>
-      <c r="Z17" s="3">
-        <f t="shared" si="20"/>
+      <c r="AC17" s="3">
+        <f t="shared" si="28"/>
         <v>0.2885525805199845</v>
       </c>
-      <c r="AA17" s="3">
-        <f t="shared" si="20"/>
+      <c r="AD17" s="3">
+        <f t="shared" si="28"/>
         <v>0.2819272625802251</v>
       </c>
-      <c r="AB17" s="3">
-        <f t="shared" si="20"/>
+      <c r="AE17" s="3">
+        <f t="shared" si="28"/>
         <v>0.28985443895615681</v>
       </c>
-      <c r="AC17" s="3">
-        <f t="shared" si="20"/>
+      <c r="AF17" s="3">
+        <f t="shared" si="28"/>
         <v>0.30077983893244936</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" ref="B18:Q18" si="21">+B12/B3</f>
+        <f t="shared" ref="B18:Q18" si="29">+B12/B3</f>
         <v>0.21751662971175167</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.16013426794352847</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.21828321051583349</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.15173288250211328</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.25393194166428368</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.24812362030905077</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.22832866311127181</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.15565432098765433</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.21256830601092896</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.26979619111259606</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.25558437212415291</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.16351737487326021</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.25584070796460179</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.26142522041575672</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.24143748945503626</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.17888080388080388</v>
       </c>
-      <c r="W18" s="3">
-        <f t="shared" ref="W18:AC18" si="22">+W12/W3</f>
+      <c r="R18" s="3">
+        <f t="shared" ref="R18" si="30">+R12/R3</f>
+        <v>0.25186449815796569</v>
+      </c>
+      <c r="Z18" s="3">
+        <f t="shared" ref="Z18:AF18" si="31">+Z12/Z3</f>
         <v>0.23967930029154519</v>
       </c>
-      <c r="X18" s="3">
-        <f t="shared" si="22"/>
+      <c r="AA18" s="3">
+        <f t="shared" si="31"/>
         <v>0.2243331723286642</v>
       </c>
-      <c r="Y18" s="3">
-        <f t="shared" si="22"/>
+      <c r="AB18" s="3">
+        <f t="shared" si="31"/>
         <v>0.20603380384079481</v>
       </c>
-      <c r="Z18" s="3">
-        <f t="shared" si="22"/>
+      <c r="AC18" s="3">
+        <f t="shared" si="31"/>
         <v>0.18657353511835467</v>
       </c>
-      <c r="AA18" s="3">
-        <f t="shared" si="22"/>
+      <c r="AD18" s="3">
+        <f t="shared" si="31"/>
         <v>0.2226769602827644</v>
       </c>
-      <c r="AB18" s="3">
-        <f t="shared" si="22"/>
+      <c r="AE18" s="3">
+        <f t="shared" si="31"/>
         <v>0.22714953883813438</v>
       </c>
-      <c r="AC18" s="3">
-        <f t="shared" si="22"/>
+      <c r="AF18" s="3">
+        <f t="shared" si="31"/>
         <v>0.23480164042413038</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" ref="B19:P19" si="23">+B11/B10</f>
+        <f t="shared" ref="B19:P19" si="32">+B11/B10</f>
         <v>0.20566801619433198</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.37996941896024466</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.21742234916101391</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.26207605344295992</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.19975968759387203</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.12022542266750157</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.19758576874205844</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.2198019801980198</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.28711056811240071</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.10002786291446085</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.12938159019663723</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.2185022026431718</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.19200670765790945</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.16247732573205495</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.15625</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" ref="Q19" si="24">+Q11/Q10</f>
+        <f t="shared" ref="Q19:R19" si="33">+Q11/Q10</f>
         <v>0.22310007524454478</v>
       </c>
-      <c r="W19" s="3">
-        <f t="shared" ref="W19:AB19" si="25">+W11/W10</f>
+      <c r="R19" s="3">
+        <f t="shared" si="33"/>
+        <v>0.20482269503546099</v>
+      </c>
+      <c r="Z19" s="3">
+        <f t="shared" ref="Z19:AE19" si="34">+Z11/Z10</f>
         <v>0.17542627883650952</v>
       </c>
-      <c r="X19" s="3">
-        <f t="shared" si="25"/>
+      <c r="AA19" s="3">
+        <f t="shared" si="34"/>
         <v>0.17724633402224191</v>
       </c>
-      <c r="Y19" s="3">
-        <f t="shared" si="25"/>
+      <c r="AB19" s="3">
+        <f t="shared" si="34"/>
         <v>0.22554935671182966</v>
       </c>
-      <c r="Z19" s="3">
-        <f t="shared" si="25"/>
+      <c r="AC19" s="3">
+        <f t="shared" si="34"/>
         <v>0.26655140852232279</v>
       </c>
-      <c r="AA19" s="3">
-        <f t="shared" si="25"/>
+      <c r="AD19" s="3">
+        <f t="shared" si="34"/>
         <v>0.18090839107005388</v>
       </c>
-      <c r="AB19" s="3">
-        <f t="shared" si="25"/>
+      <c r="AE19" s="3">
+        <f t="shared" si="34"/>
         <v>0.17789906660338553</v>
       </c>
-      <c r="AC19" s="3">
-        <f t="shared" ref="AC19" si="26">+AC11/AC10</f>
+      <c r="AF19" s="3">
+        <f t="shared" ref="AF19" si="35">+AF11/AF10</f>
         <v>0.18069251872173203</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" ref="F21:Q21" si="27">+F3/B3-1</f>
+        <f t="shared" ref="F21:R21" si="36">+F3/B3-1</f>
         <v>0.16308203991130821</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0.11807680916181251</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0.10167297351125271</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>6.9843617920541057E-2</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>4.661138118387198E-2</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>5.713024282560708E-2</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8.0448341317906458E-2</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>7.150617283950611E-2</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>2.9143897996356971E-2</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>3.2659538924156406E-2</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>-8.2824395549234708E-3</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>6.4061203797584954E-2</v>
       </c>
-      <c r="W21" s="6" t="e">
-        <f t="shared" ref="W21:AC21" si="28">+W3/V3-1</f>
+      <c r="R21" s="6">
+        <f t="shared" si="36"/>
+        <v>-1.513274336283188E-2</v>
+      </c>
+      <c r="Z21" s="6" t="e">
+        <f t="shared" ref="Z21:AF21" si="37">+Z3/Y3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X21" s="6">
-        <f t="shared" si="28"/>
+      <c r="AA21" s="6">
+        <f t="shared" si="37"/>
         <v>8.647230320699717E-2</v>
       </c>
-      <c r="Y21" s="6">
-        <f t="shared" si="28"/>
+      <c r="AB21" s="6">
+        <f t="shared" si="37"/>
         <v>-0.11409864219395693</v>
       </c>
-      <c r="Z21" s="6">
-        <f t="shared" si="28"/>
+      <c r="AC21" s="6">
+        <f t="shared" si="37"/>
         <v>0.17086690494941537</v>
       </c>
-      <c r="AA21" s="6">
-        <f t="shared" si="28"/>
+      <c r="AD21" s="6">
+        <f t="shared" si="37"/>
         <v>0.11250808433579107</v>
       </c>
-      <c r="AB21" s="6">
-        <f t="shared" si="28"/>
+      <c r="AE21" s="6">
+        <f t="shared" si="37"/>
         <v>6.3947539763743011E-2</v>
       </c>
-      <c r="AC21" s="6">
-        <f t="shared" si="28"/>
+      <c r="AF21" s="6">
+        <f t="shared" si="37"/>
         <v>2.8565808453905772E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="1">
+        <f>8417+3579+1791+18369</f>
+        <v>32156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" s="1">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R26" s="1">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27" s="1">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R29" s="1">
+        <v>10431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R30" s="1">
+        <f>13425+18333</f>
+        <v>31758</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R31" s="1">
+        <v>13669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R32" s="5">
+        <f>+SUM(R24:R31)</f>
+        <v>101716</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R33" s="1">
+        <v>16499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R34" s="1">
+        <f>5418+163+43530</f>
+        <v>49111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R36" s="1">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R37" s="1">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R38" s="5">
+        <f>+SUM(R33:R37)</f>
+        <v>73962</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R39" s="1">
+        <v>27754</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R40" s="1">
+        <f>+R39+R38</f>
+        <v>101716</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R42" s="1">
+        <f>+SUM(O12:R12)</f>
+        <v>10962</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R43" s="3">
+        <f>+R42/(R25+R26+R27+R28+R29+R31)</f>
+        <v>0.28998465689646052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R45" s="1">
+        <f>+R12</f>
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R46" s="1">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R47" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R48" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R49" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R50" s="1">
+        <v>-264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R51" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R52" s="1">
+        <v>-331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R54" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R55" s="5">
+        <f>+SUM(R46:R54)</f>
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R57" s="1">
+        <f>+-2507+1005</f>
+        <v>-1502</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R58" s="1">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R59" s="1">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R60" s="1">
+        <f>-309+8</f>
+        <v>-301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R61" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R62" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R63" s="1">
+        <f>+SUM(R57:R62)</f>
+        <v>-1067</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R65" s="1">
+        <f>5436-1599</f>
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R66" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R67" s="1">
+        <v>-370</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R68" s="1">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R69" s="1">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R70" s="1">
+        <f>+SUM(R65:R69)</f>
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R71" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R72" s="1">
+        <f>+R55+R63+R70+R71</f>
+        <v>5847</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R74" s="1">
+        <f>+R55+R60</f>
+        <v>3018</v>
       </c>
     </row>
   </sheetData>
